--- a/ancom/results_ancom_phyla_parsed.xlsx
+++ b/ancom/results_ancom_phyla_parsed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyann\Documents\GitHub\Lowry-Lab-coding\sequencing_lowry\luke_highfat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyann\Documents\GitHub\Lowry-Lab-coding\sequencing_lowry\luke_highfat\ancom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9B8C023D-66E8-486B-AD2D-1245CCB1A5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5128A8B2-55BB-4CE3-86BC-C63EBFC88437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020"/>
   </bookViews>
   <sheets>
     <sheet name="results_ancom_phyla_parsed" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>taxon</t>
   </si>
   <si>
-    <t>q_Treatment1</t>
-  </si>
-  <si>
     <t>q_Diet1</t>
   </si>
   <si>
@@ -43,15 +40,6 @@
     <t>q_TreatDiet1</t>
   </si>
   <si>
-    <t>q_TreatTime1</t>
-  </si>
-  <si>
-    <t>q_TreatTime2</t>
-  </si>
-  <si>
-    <t>q_TreatTime3</t>
-  </si>
-  <si>
     <t>q_DietTime1</t>
   </si>
   <si>
@@ -61,18 +49,6 @@
     <t>q_DietTime3</t>
   </si>
   <si>
-    <t>q_TreatDietTime1</t>
-  </si>
-  <si>
-    <t>q_TreatDietTime2</t>
-  </si>
-  <si>
-    <t>q_TreatDietTime3</t>
-  </si>
-  <si>
-    <t>lfc_Treatment1</t>
-  </si>
-  <si>
     <t>lfc_Diet1</t>
   </si>
   <si>
@@ -85,18 +61,6 @@
     <t>lfc_Timepoint3</t>
   </si>
   <si>
-    <t>lfc_TreatDiet1</t>
-  </si>
-  <si>
-    <t>lfc_TreatTime1</t>
-  </si>
-  <si>
-    <t>lfc_TreatTime2</t>
-  </si>
-  <si>
-    <t>lfc_TreatTime3</t>
-  </si>
-  <si>
     <t>lfc_DietTime1</t>
   </si>
   <si>
@@ -104,15 +68,6 @@
   </si>
   <si>
     <t>lfc_DietTime3</t>
-  </si>
-  <si>
-    <t>lfc_TreatDietTime1</t>
-  </si>
-  <si>
-    <t>lfc_TreatDietTime2</t>
-  </si>
-  <si>
-    <t>lfc_TreatDietTime3</t>
   </si>
   <si>
     <t>Phylum:Firmicutes</t>
@@ -273,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +406,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -461,7 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,11 +587,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -677,7 +639,68 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -987,31 +1010,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1060,623 +1075,321 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="2" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="B2" s="2">
+        <v>0.91598247499999996</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.77368126100000001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.44396317699999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6.6228185999999994E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.90418315999999999</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.26113171600000001</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.29687146800000003</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.26720129199999998</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2.5038405E-2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5.2802167999999997E-2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.19210303500000001</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.39003970399999999</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.41460950000000002</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.33900300799999999</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.32139398699999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="B3" s="4">
+        <v>0.69287478599999996</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.76826873200000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.44396317699999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.294677631</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.90418315999999999</v>
+      </c>
+      <c r="G3">
+        <v>7.800034E-3</v>
+      </c>
+      <c r="H3">
+        <v>1.1424900999999999E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.2569755E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.157351402</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.18973737700000001</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.25359157300000001</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.250880879</v>
+      </c>
+      <c r="N3" s="4">
+        <v>-0.98640002599999999</v>
+      </c>
+      <c r="O3" s="4">
+        <v>-0.91662127000000004</v>
+      </c>
+      <c r="P3" s="4">
+        <v>-0.83312718799999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="B4">
+        <v>0.69287478599999996</v>
+      </c>
+      <c r="C4">
+        <v>0.77213664599999998</v>
+      </c>
+      <c r="D4">
+        <v>0.55658964899999996</v>
+      </c>
+      <c r="E4">
+        <v>0.69274042000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.83683979399999997</v>
+      </c>
+      <c r="G4">
+        <v>0.69965430500000003</v>
+      </c>
+      <c r="H4">
+        <v>0.463433547</v>
+      </c>
+      <c r="I4">
+        <v>0.85704476399999996</v>
+      </c>
+      <c r="J4">
+        <v>0.28277255800000001</v>
+      </c>
+      <c r="K4">
+        <v>-0.362763905</v>
+      </c>
+      <c r="L4">
+        <v>-0.327234319</v>
+      </c>
+      <c r="M4">
+        <v>-0.20564575099999999</v>
+      </c>
+      <c r="N4">
+        <v>-0.41553626799999999</v>
+      </c>
+      <c r="O4">
+        <v>-0.64845442799999997</v>
+      </c>
+      <c r="P4">
+        <v>-0.26358711000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="B5" s="4">
+        <v>0.69287478599999996</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9.8612609000000004E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.4500000000000003E-5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.26E-5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.78682728599999996</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.26113171600000001</v>
+      </c>
+      <c r="H5">
+        <v>3.2113258999999998E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.2569755E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.64560938300000004</v>
+      </c>
+      <c r="K5" s="4">
+        <v>-1.315077037</v>
+      </c>
+      <c r="L5" s="4">
+        <v>-2.822593366</v>
+      </c>
+      <c r="M5">
+        <v>-3.0259692330000001</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1.3018539039999999</v>
+      </c>
+      <c r="O5" s="4">
+        <v>2.193136548</v>
+      </c>
+      <c r="P5" s="4">
+        <v>2.5952470480000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="B6">
+        <v>0.69287478599999996</v>
+      </c>
+      <c r="C6">
+        <v>0.77368126100000001</v>
+      </c>
+      <c r="D6">
+        <v>0.55658964899999996</v>
+      </c>
+      <c r="E6">
+        <v>0.226642023</v>
+      </c>
+      <c r="F6">
+        <v>0.78682728599999996</v>
+      </c>
+      <c r="G6">
+        <v>0.32408917700000001</v>
+      </c>
+      <c r="H6">
+        <v>0.29687146800000003</v>
+      </c>
+      <c r="I6">
+        <v>0.100352196</v>
+      </c>
+      <c r="J6">
+        <v>-0.53790764999999996</v>
+      </c>
+      <c r="K6">
+        <v>-0.22838438</v>
+      </c>
+      <c r="L6">
+        <v>0.39900693500000001</v>
+      </c>
+      <c r="M6">
+        <v>0.80450356000000001</v>
+      </c>
+      <c r="N6">
+        <v>0.97453451400000002</v>
+      </c>
+      <c r="O6">
+        <v>1.0024813749999999</v>
+      </c>
+      <c r="P6">
+        <v>1.5260215349999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
-        <v>0.745708017</v>
-      </c>
-      <c r="C2">
-        <v>0.91598247499999996</v>
-      </c>
-      <c r="D2">
-        <v>0.77368126100000001</v>
-      </c>
-      <c r="E2">
-        <v>0.44396317699999999</v>
-      </c>
-      <c r="F2">
-        <v>6.6228185999999994E-2</v>
-      </c>
-      <c r="G2">
-        <v>0.90418315999999999</v>
-      </c>
-      <c r="H2">
-        <v>0.81856751299999997</v>
-      </c>
-      <c r="I2">
-        <v>0.95765875600000006</v>
-      </c>
-      <c r="J2">
-        <v>0.55634168100000003</v>
-      </c>
-      <c r="K2">
-        <v>0.26113171600000001</v>
-      </c>
-      <c r="L2">
-        <v>0.29687146800000003</v>
-      </c>
-      <c r="M2">
-        <v>0.26720129199999998</v>
-      </c>
-      <c r="N2">
-        <v>0.76403213199999997</v>
-      </c>
-      <c r="O2">
-        <v>0.96384789999999998</v>
-      </c>
-      <c r="P2">
-        <v>0.96894892399999999</v>
-      </c>
-      <c r="Q2">
-        <v>0.16613835599999999</v>
-      </c>
-      <c r="R2">
-        <v>2.5038405E-2</v>
-      </c>
-      <c r="S2">
-        <v>5.2802167999999997E-2</v>
-      </c>
-      <c r="T2">
-        <v>0.19210303500000001</v>
-      </c>
-      <c r="U2">
-        <v>0.39003970399999999</v>
-      </c>
-      <c r="V2">
-        <v>-4.0699917000000002E-2</v>
-      </c>
-      <c r="W2">
-        <v>-7.9939144000000004E-2</v>
-      </c>
-      <c r="X2">
-        <v>-9.7097291000000002E-2</v>
-      </c>
-      <c r="Y2">
-        <v>-0.17990747200000001</v>
-      </c>
-      <c r="Z2">
-        <v>0.41460950000000002</v>
-      </c>
-      <c r="AA2">
-        <v>0.33900300799999999</v>
-      </c>
-      <c r="AB2">
-        <v>0.32139398699999999</v>
-      </c>
-      <c r="AC2">
-        <v>-9.8201747000000006E-2</v>
-      </c>
-      <c r="AD2">
-        <v>2.2969943E-2</v>
-      </c>
-      <c r="AE2">
-        <v>4.9337762E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.90056653600000003</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B7">
         <v>0.69287478599999996</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.76826873200000001</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.44396317699999999</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.294677631</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.90418315999999999</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.81856751299999997</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.95765875600000006</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.73708129700000002</v>
-      </c>
-      <c r="K3" s="1">
-        <v>7.800034E-3</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1.1424900999999999E-2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1.2569755E-2</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0.71144776799999998</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0.96384789999999998</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0.96894892399999999</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>3.1703522999999997E-2</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0.157351402</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0.18973737700000001</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0.25359157300000001</v>
-      </c>
-      <c r="U3" s="3">
-        <v>0.250880879</v>
-      </c>
-      <c r="V3" s="3">
-        <v>-5.0713072999999997E-2</v>
-      </c>
-      <c r="W3" s="3">
-        <v>-0.120312499</v>
-      </c>
-      <c r="X3" s="3">
-        <v>1.6100204999999999E-2</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>-8.4164586E-2</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>-0.98640002599999999</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>-0.91662127000000004</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>-0.83312718799999996</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>0.22940095699999999</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>-8.1454472999999999E-2</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>1.5019803E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4">
-        <v>0.73192024200000005</v>
-      </c>
-      <c r="C4">
-        <v>0.69287478599999996</v>
-      </c>
-      <c r="D4">
-        <v>0.77213664599999998</v>
-      </c>
-      <c r="E4">
-        <v>0.55658964899999996</v>
-      </c>
-      <c r="F4">
-        <v>0.69274042000000002</v>
-      </c>
-      <c r="G4">
+      <c r="C7">
+        <v>9.8612609000000004E-2</v>
+      </c>
+      <c r="D7">
+        <v>7.89166E-4</v>
+      </c>
+      <c r="E7">
+        <v>8.509997E-3</v>
+      </c>
+      <c r="F7">
         <v>0.83683979399999997</v>
       </c>
-      <c r="H4">
-        <v>0.54301128600000004</v>
-      </c>
-      <c r="I4">
-        <v>0.95765875600000006</v>
-      </c>
-      <c r="J4">
-        <v>0.55634168100000003</v>
-      </c>
-      <c r="K4">
-        <v>0.69965430500000003</v>
-      </c>
-      <c r="L4">
-        <v>0.463433547</v>
-      </c>
-      <c r="M4">
-        <v>0.85704476399999996</v>
-      </c>
-      <c r="N4">
-        <v>0.26388420099999998</v>
-      </c>
-      <c r="O4">
-        <v>0.96384789999999998</v>
-      </c>
-      <c r="P4">
-        <v>0.62680622900000005</v>
-      </c>
-      <c r="Q4">
-        <v>-0.49350021700000002</v>
-      </c>
-      <c r="R4">
-        <v>0.28277255800000001</v>
-      </c>
-      <c r="S4">
-        <v>-0.362763905</v>
-      </c>
-      <c r="T4">
-        <v>-0.327234319</v>
-      </c>
-      <c r="U4">
-        <v>-0.20564575099999999</v>
-      </c>
-      <c r="V4">
-        <v>0.529429182</v>
-      </c>
-      <c r="W4">
-        <v>0.87139513099999999</v>
-      </c>
-      <c r="X4">
-        <v>0.10776142900000001</v>
-      </c>
-      <c r="Y4">
-        <v>0.86349726900000001</v>
-      </c>
-      <c r="Z4">
-        <v>-0.41553626799999999</v>
-      </c>
-      <c r="AA4">
-        <v>-0.64845442799999997</v>
-      </c>
-      <c r="AB4">
-        <v>-0.26358711000000001</v>
-      </c>
-      <c r="AC4">
-        <v>-1.885566423</v>
-      </c>
-      <c r="AD4">
-        <v>-4.9407326000000001E-2</v>
-      </c>
-      <c r="AE4">
-        <v>-1.3289579970000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.754772369</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.69287478599999996</v>
-      </c>
-      <c r="D5" s="3">
-        <v>9.8612609000000004E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5.4500000000000003E-5</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.26E-5</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.78682728599999996</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.26982924699999999</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.95765875600000006</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.55634168100000003</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.26113171600000001</v>
-      </c>
-      <c r="L5" s="1">
-        <v>3.2113258999999998E-2</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1.2569755E-2</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.26388420099999998</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0.96384789999999998</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0.73783222299999995</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0.40578078899999998</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0.64560938300000004</v>
-      </c>
-      <c r="S5" s="3">
-        <v>-1.315077037</v>
-      </c>
-      <c r="T5" s="3">
-        <v>-2.822593366</v>
-      </c>
-      <c r="U5" s="1">
-        <v>-3.0259692330000001</v>
-      </c>
-      <c r="V5" s="3">
-        <v>-1.4551907040000001</v>
-      </c>
-      <c r="W5" s="3">
-        <v>-1.4341829530000001</v>
-      </c>
-      <c r="X5" s="3">
-        <v>-0.121576556</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>-0.66203609200000002</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>1.3018539039999999</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>2.193136548</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>2.5952470480000001</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>2.3684089149999998</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>1.0202043949999999</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>1.098379159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <v>0.73192024200000005</v>
-      </c>
-      <c r="C6">
-        <v>0.69287478599999996</v>
-      </c>
-      <c r="D6">
-        <v>0.77368126100000001</v>
-      </c>
-      <c r="E6">
-        <v>0.55658964899999996</v>
-      </c>
-      <c r="F6">
-        <v>0.226642023</v>
-      </c>
-      <c r="G6">
-        <v>0.78682728599999996</v>
-      </c>
-      <c r="H6">
-        <v>0.26982924699999999</v>
-      </c>
-      <c r="I6">
-        <v>0.95765875600000006</v>
-      </c>
-      <c r="J6">
-        <v>0.54156094899999996</v>
-      </c>
-      <c r="K6">
-        <v>0.32408917700000001</v>
-      </c>
-      <c r="L6">
-        <v>0.29687146800000003</v>
-      </c>
-      <c r="M6">
-        <v>0.100352196</v>
-      </c>
-      <c r="N6">
-        <v>0.357651355</v>
-      </c>
-      <c r="O6">
-        <v>0.96384789999999998</v>
-      </c>
-      <c r="P6">
-        <v>0.34870073899999998</v>
-      </c>
-      <c r="Q6">
-        <v>-0.64320197899999998</v>
-      </c>
-      <c r="R6">
-        <v>-0.53790764999999996</v>
-      </c>
-      <c r="S6">
-        <v>-0.22838438</v>
-      </c>
-      <c r="T6">
-        <v>0.39900693500000001</v>
-      </c>
-      <c r="U6">
-        <v>0.80450356000000001</v>
-      </c>
-      <c r="V6">
-        <v>0.968803215</v>
-      </c>
-      <c r="W6">
-        <v>1.329749718</v>
-      </c>
-      <c r="X6">
-        <v>0.16141002099999999</v>
-      </c>
-      <c r="Y6">
-        <v>1.3099199130000001</v>
-      </c>
-      <c r="Z6">
-        <v>0.97453451400000002</v>
-      </c>
-      <c r="AA6">
-        <v>1.0024813749999999</v>
-      </c>
-      <c r="AB6">
-        <v>1.5260215349999999</v>
-      </c>
-      <c r="AC6">
-        <v>-1.5035399490000001</v>
-      </c>
-      <c r="AD6">
-        <v>0.50777937699999998</v>
-      </c>
-      <c r="AE6">
-        <v>-2.1072562690000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.73192024200000005</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.69287478599999996</v>
-      </c>
-      <c r="D7" s="4">
-        <v>9.8612609000000004E-2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>7.89166E-4</v>
-      </c>
-      <c r="F7" s="4">
-        <v>8.509997E-3</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.83683979399999997</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.89011870400000004</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.95765875600000006</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.55634168100000003</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="G7">
         <v>0.87765194800000002</v>
       </c>
-      <c r="L7" s="4">
+      <c r="H7">
         <v>0.93198426499999998</v>
       </c>
-      <c r="M7" s="4">
+      <c r="I7">
         <v>0.98778556500000003</v>
       </c>
-      <c r="N7" s="4">
-        <v>0.71144776799999998</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.96384789999999998</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.96894892399999999</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0.47644533700000002</v>
-      </c>
-      <c r="R7" s="4">
+      <c r="J7">
         <v>0.33180695399999999</v>
       </c>
-      <c r="S7" s="4">
+      <c r="K7">
         <v>0.76831556199999995</v>
       </c>
-      <c r="T7" s="4">
+      <c r="L7">
         <v>1.203722408</v>
       </c>
-      <c r="U7" s="4">
+      <c r="M7">
         <v>0.96975866099999997</v>
       </c>
-      <c r="V7" s="4">
-        <v>-0.298988011</v>
-      </c>
-      <c r="W7" s="4">
-        <v>5.5828699000000002E-2</v>
-      </c>
-      <c r="X7" s="4">
-        <v>-0.45441417499999998</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>-0.29963420000000002</v>
-      </c>
-      <c r="Z7" s="4">
+      <c r="N7">
         <v>6.9427140999999998E-2</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="O7">
         <v>3.7617833000000003E-2</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="P7">
         <v>-6.6992279999999998E-3</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>-0.33056271500000001</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>-0.26405899700000002</v>
-      </c>
-      <c r="AE7" s="4">
-        <v>6.0092990999999998E-2</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:I7">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P7">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>